--- a/IPSEMG_SADT.xlsx
+++ b/IPSEMG_SADT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\PycharmProjects\Unimed\GOOGLE CLOUD RUN\GUIAS IPSEMG\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\PycharmProjects\Unimed\GOOGLE CLOUD RUN\GUIAS IPSEMG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -317,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,13 +402,155 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -417,61 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -484,95 +571,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -643,74 +649,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1962" name="Imagem 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="114300" y="66675"/>
-          <a:ext cx="1190625" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1067,7 +1005,7 @@
   <dimension ref="A1:BD69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ68" sqref="AQ68"/>
+      <selection activeCell="B1" sqref="B1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1078,61 +1016,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K1" s="43" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
     </row>
     <row r="2" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="77" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1174,79 +1130,79 @@
       <c r="AH3" s="8"/>
     </row>
     <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="40"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="34"/>
     </row>
     <row r="5" spans="1:34" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="42"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
     </row>
     <row r="6" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1284,43 +1240,43 @@
       <c r="AH6" s="11"/>
     </row>
     <row r="7" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="42"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="37"/>
     </row>
     <row r="8" spans="1:34" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1356,7 +1312,7 @@
       <c r="AH8" s="15"/>
     </row>
     <row r="9" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1392,43 +1348,43 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="31"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="72"/>
     </row>
     <row r="11" spans="1:34" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1464,7 +1420,7 @@
       <c r="AH11" s="15"/>
     </row>
     <row r="12" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1506,45 +1462,45 @@
       <c r="AH12" s="20"/>
     </row>
     <row r="13" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="30" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="31"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="72"/>
     </row>
     <row r="14" spans="1:34" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1580,7 +1536,7 @@
       <c r="AH14" s="7"/>
     </row>
     <row r="15" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1620,43 +1576,43 @@
       <c r="AH15" s="20"/>
     </row>
     <row r="16" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="40"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="34"/>
     </row>
     <row r="17" spans="1:56" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1692,7 +1648,7 @@
       <c r="AH17" s="4"/>
     </row>
     <row r="18" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1698,7 @@
       <c r="BD18" s="17"/>
     </row>
     <row r="19" spans="1:56" s="21" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1785,7 +1741,7 @@
       <c r="BD19" s="10"/>
     </row>
     <row r="20" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="9"/>
       <c r="C20" s="25"/>
       <c r="D20" s="10" t="s">
@@ -1816,19 +1772,19 @@
         <v>5</v>
       </c>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="49"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="75"/>
       <c r="AW20" s="2"/>
     </row>
     <row r="21" spans="1:56" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1865,7 +1821,7 @@
       <c r="AW21" s="2"/>
     </row>
     <row r="22" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1903,190 +1859,190 @@
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
       <c r="AH23" s="11"/>
     </row>
     <row r="24" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
       <c r="AH24" s="11"/>
     </row>
     <row r="25" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
       <c r="AH25" s="11"/>
     </row>
     <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
       <c r="AH26" s="11"/>
       <c r="AI26" s="21"/>
       <c r="AR26" s="2"/>
     </row>
     <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
       <c r="AH27" s="11"/>
       <c r="AI27" s="21"/>
     </row>
     <row r="28" spans="1:56" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2122,7 +2078,7 @@
       <c r="AH28" s="14"/>
     </row>
     <row r="29" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
@@ -2160,187 +2116,187 @@
       <c r="AH29" s="8"/>
     </row>
     <row r="30" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
       <c r="AH30" s="11"/>
     </row>
     <row r="31" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
       <c r="AH31" s="11"/>
     </row>
     <row r="32" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
       <c r="AH32" s="11"/>
     </row>
     <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
       <c r="AH33" s="11"/>
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
       <c r="AH34" s="11"/>
     </row>
     <row r="35" spans="1:34" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2376,7 +2332,7 @@
       <c r="AH35" s="14"/>
     </row>
     <row r="36" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
@@ -2414,187 +2370,187 @@
       <c r="AH36" s="8"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
       <c r="AH37" s="11"/>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
       <c r="AH38" s="11"/>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
       <c r="AH39" s="11"/>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
       <c r="AH40" s="11"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
       <c r="AH41" s="11"/>
     </row>
     <row r="42" spans="1:34" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -2630,373 +2586,373 @@
       <c r="AH42" s="14"/>
     </row>
     <row r="43" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="51" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="60" t="s">
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="61"/>
-      <c r="U43" s="61"/>
-      <c r="V43" s="61"/>
-      <c r="W43" s="61"/>
-      <c r="X43" s="61"/>
-      <c r="Y43" s="61"/>
-      <c r="Z43" s="61"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="51" t="s">
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="64"/>
+      <c r="AE43" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="53"/>
+      <c r="AF43" s="54"/>
+      <c r="AG43" s="54"/>
+      <c r="AH43" s="55"/>
     </row>
     <row r="44" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="56"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="59"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="59"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="61"/>
     </row>
     <row r="46" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="68"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="35"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="40"/>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="67"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="67"/>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="67"/>
-      <c r="AA47" s="67"/>
-      <c r="AB47" s="67"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="35"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="40"/>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
-      <c r="Z48" s="67"/>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="35"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="40"/>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
-      <c r="Z49" s="67"/>
-      <c r="AA49" s="67"/>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="67"/>
-      <c r="AD49" s="68"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="35"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="38"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="40"/>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
-      <c r="Z50" s="67"/>
-      <c r="AA50" s="67"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="67"/>
-      <c r="AD50" s="68"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="35"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="40"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
-      <c r="Z51" s="67"/>
-      <c r="AA51" s="67"/>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="67"/>
-      <c r="AD51" s="68"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="35"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
+      <c r="AC51" s="42"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="40"/>
     </row>
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="67"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="67"/>
-      <c r="Y52" s="67"/>
-      <c r="Z52" s="67"/>
-      <c r="AA52" s="67"/>
-      <c r="AB52" s="67"/>
-      <c r="AC52" s="67"/>
-      <c r="AD52" s="68"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="34"/>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="35"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="38"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="40"/>
     </row>
     <row r="53" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="76" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3007,28 +2963,28 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
+      <c r="AB53" s="78"/>
+      <c r="AC53" s="78"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
@@ -3036,259 +2992,259 @@
       <c r="AH53" s="8"/>
     </row>
     <row r="54" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="70"/>
-      <c r="AE54" s="70"/>
-      <c r="AF54" s="70"/>
-      <c r="AG54" s="70"/>
-      <c r="AH54" s="71"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="48"/>
     </row>
     <row r="55" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="70"/>
-      <c r="AB55" s="70"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="70"/>
-      <c r="AE55" s="70"/>
-      <c r="AF55" s="70"/>
-      <c r="AG55" s="70"/>
-      <c r="AH55" s="71"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="48"/>
     </row>
     <row r="56" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="70"/>
-      <c r="AB56" s="70"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="70"/>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="70"/>
-      <c r="AG56" s="70"/>
-      <c r="AH56" s="71"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="47"/>
+      <c r="AH56" s="48"/>
     </row>
     <row r="57" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="70"/>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="70"/>
-      <c r="AG57" s="70"/>
-      <c r="AH57" s="71"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="47"/>
+      <c r="AE57" s="47"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="47"/>
+      <c r="AH57" s="48"/>
     </row>
     <row r="58" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="70"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="70"/>
-      <c r="AG58" s="70"/>
-      <c r="AH58" s="71"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="48"/>
     </row>
     <row r="59" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="70"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="70"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="70"/>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="70"/>
-      <c r="AG59" s="70"/>
-      <c r="AH59" s="71"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
+      <c r="Y59" s="47"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
+      <c r="AC59" s="47"/>
+      <c r="AD59" s="47"/>
+      <c r="AE59" s="47"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="47"/>
+      <c r="AH59" s="48"/>
     </row>
     <row r="60" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="73"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
-      <c r="AC60" s="73"/>
-      <c r="AD60" s="73"/>
-      <c r="AE60" s="73"/>
-      <c r="AF60" s="73"/>
-      <c r="AG60" s="73"/>
-      <c r="AH60" s="74"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="50"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="50"/>
+      <c r="AF60" s="50"/>
+      <c r="AG60" s="50"/>
+      <c r="AH60" s="51"/>
     </row>
     <row r="61" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="A61" s="76"/>
       <c r="B61" s="9" t="s">
         <v>28</v>
       </c>
@@ -3326,7 +3282,7 @@
       <c r="AH61" s="11"/>
     </row>
     <row r="62" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="9"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -3362,7 +3318,7 @@
       <c r="AH62" s="11"/>
     </row>
     <row r="63" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="9"/>
       <c r="C63" s="26"/>
       <c r="D63" s="23" t="s">
@@ -3372,73 +3328,73 @@
       <c r="F63" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
-      <c r="AE63" s="29"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="45"/>
+      <c r="AB63" s="45"/>
+      <c r="AC63" s="45"/>
+      <c r="AD63" s="45"/>
+      <c r="AE63" s="45"/>
       <c r="AF63" s="10"/>
       <c r="AG63" s="10"/>
       <c r="AH63" s="11"/>
     </row>
     <row r="64" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
+      <c r="A64" s="76"/>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="23"/>
       <c r="E64" s="10"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="64"/>
-      <c r="S64" s="64"/>
-      <c r="T64" s="64"/>
-      <c r="U64" s="64"/>
-      <c r="V64" s="64"/>
-      <c r="W64" s="64"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="64"/>
-      <c r="Z64" s="64"/>
-      <c r="AA64" s="64"/>
-      <c r="AB64" s="64"/>
-      <c r="AC64" s="64"/>
-      <c r="AD64" s="64"/>
-      <c r="AE64" s="64"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
       <c r="AF64" s="10"/>
       <c r="AG64" s="10"/>
       <c r="AH64" s="11"/>
     </row>
     <row r="65" spans="1:34" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="12"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -3474,78 +3430,78 @@
       <c r="AH65" s="14"/>
     </row>
     <row r="66" spans="1:34" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="76" t="s">
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="76"/>
-      <c r="P66" s="76"/>
-      <c r="Q66" s="76"/>
-      <c r="R66" s="76"/>
-      <c r="S66" s="76"/>
-      <c r="T66" s="76"/>
-      <c r="U66" s="76"/>
-      <c r="V66" s="76"/>
-      <c r="W66" s="76"/>
-      <c r="X66" s="76"/>
-      <c r="Y66" s="76"/>
-      <c r="Z66" s="76"/>
-      <c r="AA66" s="76"/>
-      <c r="AB66" s="76"/>
-      <c r="AC66" s="76"/>
-      <c r="AD66" s="76"/>
-      <c r="AE66" s="76"/>
-      <c r="AF66" s="76"/>
-      <c r="AG66" s="76"/>
-      <c r="AH66" s="76"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="31"/>
+      <c r="Y66" s="31"/>
+      <c r="Z66" s="31"/>
+      <c r="AA66" s="31"/>
+      <c r="AB66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="31"/>
+      <c r="AE66" s="31"/>
+      <c r="AF66" s="31"/>
+      <c r="AG66" s="31"/>
+      <c r="AH66" s="31"/>
     </row>
     <row r="67" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="75"/>
-      <c r="S67" s="75"/>
-      <c r="T67" s="75"/>
-      <c r="U67" s="75"/>
-      <c r="V67" s="75"/>
-      <c r="W67" s="75"/>
-      <c r="X67" s="75"/>
-      <c r="Y67" s="75"/>
-      <c r="Z67" s="75"/>
-      <c r="AA67" s="75"/>
-      <c r="AB67" s="75"/>
-      <c r="AC67" s="75"/>
-      <c r="AD67" s="75"/>
-      <c r="AE67" s="75"/>
-      <c r="AF67" s="75"/>
-      <c r="AG67" s="75"/>
-      <c r="AH67" s="75"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="28"/>
+      <c r="AF67" s="28"/>
+      <c r="AG67" s="28"/>
+      <c r="AH67" s="28"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B68" s="3"/>
@@ -3618,7 +3574,54 @@
       <c r="AH69" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
+    <mergeCell ref="A53:A65"/>
+    <mergeCell ref="J63:AE63"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="C33:AG33"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="C27:AG27"/>
+    <mergeCell ref="A3:A51"/>
+    <mergeCell ref="H53:AC53"/>
+    <mergeCell ref="AE46:AH46"/>
+    <mergeCell ref="C34:AG34"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C38:AG38"/>
+    <mergeCell ref="C39:AG39"/>
+    <mergeCell ref="J64:AE64"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K1:AH2"/>
+    <mergeCell ref="C23:AG23"/>
+    <mergeCell ref="C24:AG24"/>
+    <mergeCell ref="C25:AG25"/>
+    <mergeCell ref="C26:AG26"/>
+    <mergeCell ref="C30:AG30"/>
+    <mergeCell ref="C31:AG31"/>
+    <mergeCell ref="C32:AG32"/>
+    <mergeCell ref="B7:AH7"/>
+    <mergeCell ref="B10:V10"/>
+    <mergeCell ref="W10:AH10"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B4:R5"/>
+    <mergeCell ref="C41:AG41"/>
+    <mergeCell ref="G16:AH16"/>
+    <mergeCell ref="AE50:AH50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:AD51"/>
+    <mergeCell ref="G50:AD50"/>
+    <mergeCell ref="G49:AD49"/>
+    <mergeCell ref="AE49:AH49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B43:F45"/>
+    <mergeCell ref="AE43:AH45"/>
+    <mergeCell ref="G43:AD45"/>
+    <mergeCell ref="AE47:AH47"/>
+    <mergeCell ref="AE48:AH48"/>
+    <mergeCell ref="C40:AG40"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="B1:J2"/>
     <mergeCell ref="L66:AH66"/>
     <mergeCell ref="S4:AH5"/>
     <mergeCell ref="B52:F52"/>
@@ -3634,52 +3637,6 @@
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="G48:AD48"/>
     <mergeCell ref="B66:K67"/>
-    <mergeCell ref="C41:AG41"/>
-    <mergeCell ref="B43:F45"/>
-    <mergeCell ref="AE43:AH45"/>
-    <mergeCell ref="G43:AD45"/>
-    <mergeCell ref="AE47:AH47"/>
-    <mergeCell ref="AE48:AH48"/>
-    <mergeCell ref="AE50:AH50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:AD51"/>
-    <mergeCell ref="G50:AD50"/>
-    <mergeCell ref="G49:AD49"/>
-    <mergeCell ref="AE49:AH49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="J64:AE64"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="K1:AH2"/>
-    <mergeCell ref="C23:AG23"/>
-    <mergeCell ref="C24:AG24"/>
-    <mergeCell ref="C25:AG25"/>
-    <mergeCell ref="C26:AG26"/>
-    <mergeCell ref="C30:AG30"/>
-    <mergeCell ref="C31:AG31"/>
-    <mergeCell ref="C32:AG32"/>
-    <mergeCell ref="B7:AH7"/>
-    <mergeCell ref="B10:V10"/>
-    <mergeCell ref="W10:AH10"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AH16"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="A53:A65"/>
-    <mergeCell ref="J63:AE63"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="C33:AG33"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="C27:AG27"/>
-    <mergeCell ref="A3:A51"/>
-    <mergeCell ref="H53:AC53"/>
-    <mergeCell ref="AE46:AH46"/>
-    <mergeCell ref="C34:AG34"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C38:AG38"/>
-    <mergeCell ref="C39:AG39"/>
-    <mergeCell ref="C40:AG40"/>
-    <mergeCell ref="B4:R5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
